--- a/va_facility_data_2025-02-20/Eastern Baltimore County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Eastern%20Baltimore%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Eastern Baltimore County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Eastern%20Baltimore%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb720c619af0e4dfb8f575b3a0d6aab4a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7ebd71d2d45e4702827395f17fc0e95f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4cfc3120e2b443638ed78c7721db2cb1"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R8ad05eca396245008259a671977f32f7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0c640e0c63324fe792b8b3860812a0cb"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1cbd519d407543c6aabf2ff4c90afb6a"/>
   </x:sheets>
 </x:workbook>
 </file>
